--- a/Assets/Excels/AuthDataTable.xlsx
+++ b/Assets/Excels/AuthDataTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6318230E-DD43-48E4-9740-48EF21DB2193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D511C-709A-47C7-92EB-75FEA860D1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>string</t>
   </si>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>솔휘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yjhjulia1@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F16BB7-1138-48FE-8D22-B7F862436B57}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,10 +477,19 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{8F319875-084C-4287-B9B7-D0FBA50FC95B}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{71C57E84-5C72-40ED-B6CB-920DF37053D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
